--- a/WorkBot/main/backend/ordering/OrderFiles/UNFI/UNFI_Triphammer_20250704.xlsx
+++ b/WorkBot/main/backend/ordering/OrderFiles/UNFI/UNFI_Triphammer_20250704.xlsx
@@ -451,783 +451,783 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2273316</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GTS, Kombucha - Gingerade</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>42.02</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>42.02</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>227347-2</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GTS, Kombucha - Strawberry</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>42.02</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>42.02</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2273266</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GTS, Kombucha - Multi Green</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>42.02</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>42.02</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2273399</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GTS, Kombucha - Trilogy</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>42.02</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>42.02</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>153498-1</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>High Brew - DBL Expresso</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>153503-8</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>High Brew - Mex Vanilla</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>23.60</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>23.60</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>244850-4</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Remedy - Berry Immunity</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>25.06</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>25.06</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>223791-5</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Remedy - Drk Cacoa Essential</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>25.06</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25.06</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>223894-7</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Remedy - Matcha Fuel</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>25.06</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>25.06</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0327270</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Tofutti - Plain (8oz)</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>51.62</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>103.24</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>289446-7</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Just Tea - Berry Hibiscus</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>25.92</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>25.92</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>289447-5</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Just Tea - Half &amp; Half</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>25.92</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>25.92</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>289449-1</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Just Tea - Moroccan Mint</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>25.92</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>25.92</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>289451-7</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Just Tea - Peach</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>25.92</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>25.92</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>272451-6</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Poppi Soda - Doc Pop</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>24.07</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>24.07</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>267463-8</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Poppi Soda - Ginger Lime</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>24.07</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>24.07</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>183096-7</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Clio - Greek Yogurt Bar Strawberry</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>15.45</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>15.45</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>183090-0</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Clio - Greek Yogurt Bar Vanilla</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>15.45</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>15.45</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0921965</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Luna - Lemon Zest</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>25.36</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>25.36</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>126506-5</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sahale Snacks - Classic Fruit + Nut</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>14.73</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>14.73</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>126504-0</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sahale Snacks - Pomagranate Vanilla Cashews</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>14.87</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>14.87</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>286595-4</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>So Good So You - Happy Blood Orange</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>37.62</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>37.62</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>275975-1</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>So Good So You - Immunity Elderberry</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>37.62</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>37.62</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>275976-9</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>So Good So You - Immunity Watermelon</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>37.62</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>37.62</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>113813-0</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>That's It - Apple &amp; Cherry</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>18.18</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>18.18</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1551282</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>That's It - Apple &amp; Strawberry (Fruit Bar)</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>18.18</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>18.18</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>044593-2</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Vermints - Peppermint</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>14.30</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>14.30</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1182781</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Chocolove - Dk Choc Raspberries</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>41.30</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>41.30</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1815422</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chocolove - Dk Choc Salted Caramel</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>34.49</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>34.49</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
